--- a/sample/test/simple.xlsx
+++ b/sample/test/simple.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/piti/playground/excel_comment_orm/sample/test/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A19B1CA1-9727-B246-8166-9F75204D199E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D35B973D-53EF-C247-A71B-92F4A6C6A09D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16000" xr2:uid="{CD521CE3-CB81-4AD2-AA9F-DD3573C62CCF}"/>
   </bookViews>
@@ -90,17 +90,17 @@
             <rFont val="Tahoma"/>
             <charset val="1"/>
           </rPr>
-          <t xml:space="preserve">param: {offset: 1}
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">validators:
+          <t xml:space="preserve">params: {offset: 1}
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">validations:
 </t>
         </r>
         <r>
@@ -234,7 +234,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t xml:space="preserve">type: str
+          <t xml:space="preserve">parser: string
 </t>
         </r>
         <r>
@@ -636,7 +636,7 @@
   <dimension ref="B2:D5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>

--- a/sample/test/simple.xlsx
+++ b/sample/test/simple.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/piti/playground/excel_comment_orm/sample/test/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D35B973D-53EF-C247-A71B-92F4A6C6A09D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80727BCE-D773-8142-90A5-F04845438603}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16000" xr2:uid="{CD521CE3-CB81-4AD2-AA9F-DD3573C62CCF}"/>
   </bookViews>
@@ -70,17 +70,17 @@
             <rFont val="Tahoma"/>
             <charset val="1"/>
           </rPr>
-          <t xml:space="preserve">key: second_sheet_int
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">parser: int_with_offset
+          <t xml:space="preserve">key: some_int
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">parser: int
 </t>
         </r>
         <r>
@@ -110,17 +110,17 @@
             <rFont val="Tahoma"/>
             <charset val="1"/>
           </rPr>
-          <t xml:space="preserve">  - {name: more_than, threshold: 0} 
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">  - {name: less_than, theshold: 0} 
+          <t xml:space="preserve">  - {key: v1, name: more_than, threshold: 0} 
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">  - {key: v2, name: less_than, theshold: 0} 
 </t>
         </r>
         <r>
@@ -160,7 +160,7 @@
             <rFont val="Tahoma"/>
             <charset val="1"/>
           </rPr>
-          <t xml:space="preserve">key: str_number
+          <t xml:space="preserve">key: some_str
 </t>
         </r>
         <r>
@@ -636,7 +636,7 @@
   <dimension ref="B2:D5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+      <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>

--- a/sample/test/simple.xlsx
+++ b/sample/test/simple.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/piti/playground/excel_comment_orm/sample/test/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80727BCE-D773-8142-90A5-F04845438603}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0CC0E1B4-841A-EA4F-8D37-797A99477938}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16000" xr2:uid="{CD521CE3-CB81-4AD2-AA9F-DD3573C62CCF}"/>
   </bookViews>
@@ -90,46 +90,6 @@
             <rFont val="Tahoma"/>
             <charset val="1"/>
           </rPr>
-          <t xml:space="preserve">params: {offset: 1}
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">validations:
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">  - {key: v1, name: more_than, threshold: 0} 
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">  - {key: v2, name: less_than, theshold: 0} 
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
           <t xml:space="preserve">%%end eco
 </t>
         </r>
@@ -170,7 +130,7 @@
             <rFont val="Tahoma"/>
             <charset val="1"/>
           </rPr>
-          <t xml:space="preserve">parser: str
+          <t xml:space="preserve">parser: string
 </t>
         </r>
         <r>

--- a/sample/test/simple.xlsx
+++ b/sample/test/simple.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/piti/playground/excel_comment_orm/sample/test/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0CC0E1B4-841A-EA4F-8D37-797A99477938}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A93FBC6-2744-954F-8679-3266A3B67F4C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16000" xr2:uid="{CD521CE3-CB81-4AD2-AA9F-DD3573C62CCF}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="15000" xr2:uid="{CD521CE3-CB81-4AD2-AA9F-DD3573C62CCF}"/>
   </bookViews>
   <sheets>
     <sheet name="TestSheet" sheetId="2" r:id="rId1"/>
@@ -60,7 +60,7 @@
             <rFont val="Tahoma"/>
             <charset val="1"/>
           </rPr>
-          <t xml:space="preserve">%%begin eco
+          <t xml:space="preserve">{{--
 </t>
         </r>
         <r>
@@ -90,7 +90,7 @@
             <rFont val="Tahoma"/>
             <charset val="1"/>
           </rPr>
-          <t xml:space="preserve">%%end eco
+          <t xml:space="preserve">--}}
 </t>
         </r>
         <r>
@@ -110,7 +110,7 @@
             <rFont val="Tahoma"/>
             <charset val="1"/>
           </rPr>
-          <t xml:space="preserve">%%begin eco
+          <t xml:space="preserve">{{--
 </t>
         </r>
         <r>
@@ -140,7 +140,7 @@
             <rFont val="Tahoma"/>
             <charset val="1"/>
           </rPr>
-          <t xml:space="preserve">%%end eco
+          <t xml:space="preserve">--}}
 </t>
         </r>
       </text>
@@ -174,7 +174,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t xml:space="preserve">%%begin eco
+          <t xml:space="preserve">{{--
 </t>
         </r>
         <r>
@@ -204,7 +204,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>%%end eco</t>
+          <t>--}}</t>
         </r>
       </text>
     </comment>
@@ -596,7 +596,7 @@
   <dimension ref="B2:D5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D25" sqref="D25"/>
+      <selection activeCell="K25" sqref="K25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>

--- a/sample/test/simple.xlsx
+++ b/sample/test/simple.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11012"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20367"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/piti/playground/excel_comment_orm/sample/test/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jellydonuts\playground\excel_comment_orm\sample\test\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A93FBC6-2744-954F-8679-3266A3B67F4C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF2A88A9-1410-4A75-9040-73DBE515FB2E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="15000" xr2:uid="{CD521CE3-CB81-4AD2-AA9F-DD3573C62CCF}"/>
+    <workbookView xWindow="0" yWindow="456" windowWidth="25596" windowHeight="15000" xr2:uid="{CD521CE3-CB81-4AD2-AA9F-DD3573C62CCF}"/>
   </bookViews>
   <sheets>
     <sheet name="TestSheet" sheetId="2" r:id="rId1"/>
@@ -51,97 +51,15 @@
             <charset val="1"/>
           </rPr>
           <t xml:space="preserve">
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">{{--
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">key: some_int
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">parser: int
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">--}}
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">{{--
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">key: some_str
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">parser: string
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">--}}
-</t>
+{{--
+key: some_int
+parser: int
+--}}
+{{--
+key: some_str
+parser: string
+--}}
+dss</t>
         </r>
       </text>
     </comment>
@@ -596,17 +514,17 @@
   <dimension ref="B2:D5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K25" sqref="K25"/>
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="2" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="2" spans="2:4" x14ac:dyDescent="0.3">
       <c r="D2">
         <v>22</v>
       </c>
     </row>
-    <row r="5" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:4" x14ac:dyDescent="0.3">
       <c r="C5" t="s">
         <v>0</v>
       </c>

--- a/sample/test/simple.xlsx
+++ b/sample/test/simple.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jellydonuts\playground\excel_comment_orm\sample\test\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF2A88A9-1410-4A75-9040-73DBE515FB2E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5D1510D-2D98-4391-B66F-E21C44D3FC87}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="456" windowWidth="25596" windowHeight="15000" xr2:uid="{CD521CE3-CB81-4AD2-AA9F-DD3573C62CCF}"/>
   </bookViews>
@@ -59,7 +59,7 @@
 key: some_str
 parser: string
 --}}
-dss</t>
+</t>
         </r>
       </text>
     </comment>

--- a/sample/test/simple.xlsx
+++ b/sample/test/simple.xlsx
@@ -1,24 +1,33 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20367"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11211"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jellydonuts\playground\excel_comment_orm\sample\test\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nuttapatk/Desktop/thegang/exco/sample/test/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5D1510D-2D98-4391-B66F-E21C44D3FC87}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A5BA6BA-DDF4-ED4F-BB3A-647B51D778B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="456" windowWidth="25596" windowHeight="15000" xr2:uid="{CD521CE3-CB81-4AD2-AA9F-DD3573C62CCF}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="51200" windowHeight="27060" xr2:uid="{CD521CE3-CB81-4AD2-AA9F-DD3573C62CCF}"/>
   </bookViews>
   <sheets>
     <sheet name="TestSheet" sheetId="2" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -39,7 +48,7 @@
             <sz val="9"/>
             <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>jellydonuts:</t>
         </r>
@@ -48,7 +57,7 @@
             <sz val="9"/>
             <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 {{--
@@ -140,7 +149,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -153,13 +162,13 @@
       <sz val="9"/>
       <color rgb="FF000000"/>
       <name val="Tahoma"/>
-      <charset val="1"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="9"/>
       <color rgb="FF000000"/>
       <name val="Tahoma"/>
-      <charset val="1"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
@@ -173,6 +182,14 @@
       <color rgb="FF000000"/>
       <name val="Tahoma"/>
       <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -192,13 +209,16 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -511,23 +531,26 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DBDBE698-D470-46AC-96B1-DE0D5151A06B}">
-  <dimension ref="B2:D5"/>
+  <dimension ref="B2:D21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="2" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:4" x14ac:dyDescent="0.2">
       <c r="D2">
         <v>22</v>
       </c>
     </row>
-    <row r="5" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:4" x14ac:dyDescent="0.2">
       <c r="C5" t="s">
         <v>0</v>
       </c>
+    </row>
+    <row r="21" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B21" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
